--- a/data/edd_exercises/2018_exercise_2/external.xlsx
+++ b/data/edd_exercises/2018_exercise_2/external.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\DAT\DATA\Grupo_Proyecciones\Bridge_Model\Archivo de países\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMAYER\Documents\forecastmix\data\edd_exercises\2018_exercise_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9C72BB-62AF-4D52-BE12-DCB99695A8F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76674411-34FB-4789-B095-400C5EBA4F76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="405" windowWidth="18915" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,12 +325,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="168" formatCode="mmm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="[$-409]mmm/yy;@"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -880,7 +880,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -892,13 +892,13 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -922,7 +922,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -951,26 +951,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10831,7 +10831,7 @@
   <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F290" sqref="F290"/>
       <selection pane="topRight" activeCell="F290" sqref="F290"/>
       <selection pane="bottomLeft" activeCell="F290" sqref="F290"/>
@@ -24944,7 +24944,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <f ca="1">TODAY()</f>
-        <v>43368</v>
+        <v>43374</v>
       </c>
       <c r="B4" s="37" t="e">
         <f ca="1">_xll.BDH($C$1,$A$5,$A$3,$A$4,"Dir=V","Dts=S","Sort=A","Quote=a","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","cols=2;rows=308")</f>
